--- a/DataBases/07-ADO-NET/06-ExcelReader/score_db.xlsx
+++ b/DataBases/07-ADO-NET/06-ExcelReader/score_db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Georgi Georgiev</t>
+  </si>
+  <si>
+    <t>Gosho</t>
   </si>
 </sst>
 </file>
@@ -47,6 +50,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,13 +134,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -185,7 +189,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
